--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48394.90493091784</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48394.90493091784</v>
+        <v>9630586.081252649</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1844.86586752721</v>
+        <v>112494.5620451072</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1844.86586752721</v>
+        <v>112494.5620451072</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188924129.37322</v>
+        <v>48490844.79100319</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9811.550774585543</v>
+        <v>1070817.025068193</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19018.70061791935</v>
+        <v>2046834.231325953</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28225.85046125315</v>
+        <v>3022851.437583715</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37771.65089402463</v>
+        <v>4009742.486265719</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47262.80890255369</v>
+        <v>4985759.69252348</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56753.96691108274</v>
+        <v>5961776.898781241</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66245.12491961179</v>
+        <v>6937794.105038998</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75736.28292814083</v>
+        <v>7913811.311296755</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85581.34646148304</v>
+        <v>8883265.70286159</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95371.767570581</v>
+        <v>9841846.252002528</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105032.3170942616</v>
+        <v>10817863.45826029</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114468.8326785482</v>
+        <v>11783006.82209382</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123959.9906870772</v>
+        <v>12759024.02835159</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133451.1486956063</v>
+        <v>13735041.23460935</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142942.3067041353</v>
+        <v>14711058.44086712</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>311</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
